--- a/Datasets/II Semester 2025/Results - New ones.xlsx
+++ b/Datasets/II Semester 2025/Results - New ones.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Quesada\Documents\GitHub\eWave\Datasets\II Semester 2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eWave\eWave\Datasets\II Semester 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42F9510-8CCE-4296-BCC7-E2BD24FDB483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE143769-7EF5-4481-A529-7F5E8D18B1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{067E96B3-EB7F-4CEE-B660-BBE446B0B978}"/>
   </bookViews>
@@ -569,7 +569,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -577,18 +577,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -964,10 +965,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B065C34-D71F-4F02-8C1B-51E36B9B764A}">
-  <dimension ref="B2:G15"/>
+  <dimension ref="B2:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -978,17 +979,17 @@
     <col min="5" max="7" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1008,127 +1009,293 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="4">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="3">
         <v>90</v>
       </c>
-      <c r="C4" s="4">
-        <v>43</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="4">
+      <c r="C4" s="3">
+        <v>41</v>
+      </c>
+      <c r="D4" s="4">
+        <v>46.9358227848101</v>
+      </c>
+      <c r="E4" s="4">
+        <v>46.15616034</v>
+      </c>
+      <c r="F4" s="4">
+        <v>45.005705130000003</v>
+      </c>
+      <c r="G4" s="4">
+        <v>44.211487179999999</v>
+      </c>
+      <c r="H4" s="7">
+        <f>G4-C4</f>
+        <v>3.2114871799999989</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3">
         <v>110</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="4">
+      <c r="C5" s="3">
+        <v>48</v>
+      </c>
+      <c r="D5" s="4">
+        <v>54.886455696202503</v>
+      </c>
+      <c r="E5" s="4">
+        <v>53.148760680000002</v>
+      </c>
+      <c r="F5" s="4">
+        <v>52.254230769999999</v>
+      </c>
+      <c r="G5" s="4">
+        <v>51.428641030000001</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" ref="H5:H15" si="0">G5-C5</f>
+        <v>3.4286410300000014</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="3">
         <v>130</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="4">
+      <c r="C6" s="3">
+        <v>57</v>
+      </c>
+      <c r="D6" s="4">
+        <v>61.264050632911299</v>
+      </c>
+      <c r="E6" s="4">
+        <v>60.537435899999998</v>
+      </c>
+      <c r="F6" s="4">
+        <v>59.482980769999998</v>
+      </c>
+      <c r="G6" s="4">
+        <v>58.589794869999999</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>1.5897948699999986</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="3">
         <v>150</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="4">
+      <c r="C7" s="3">
+        <v>64</v>
+      </c>
+      <c r="D7" s="4">
+        <v>67.350253164556904</v>
+      </c>
+      <c r="E7" s="4">
+        <v>66.757905980000004</v>
+      </c>
+      <c r="F7" s="4">
+        <v>65.960320510000003</v>
+      </c>
+      <c r="G7" s="4">
+        <v>65.379384619999996</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.3793846199999962</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="3">
         <v>170</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="4">
+      <c r="C8" s="3">
+        <v>72</v>
+      </c>
+      <c r="D8" s="4">
+        <v>73.095569620253102</v>
+      </c>
+      <c r="E8" s="4">
+        <v>72.071581199999997</v>
+      </c>
+      <c r="F8" s="4">
+        <v>71.06772436</v>
+      </c>
+      <c r="G8" s="4">
+        <v>70.360589739999995</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
+        <v>-1.6394102600000053</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="3">
         <v>190</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="4">
+      <c r="C9" s="3">
+        <v>75</v>
+      </c>
+      <c r="D9" s="4">
+        <v>80.864177215189798</v>
+      </c>
+      <c r="E9" s="4">
+        <v>79.263162390000005</v>
+      </c>
+      <c r="F9" s="4">
+        <v>78.396987179999996</v>
+      </c>
+      <c r="G9" s="4">
+        <v>77.660564100000002</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="0"/>
+        <v>2.660564100000002</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
         <v>210</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="4">
+      <c r="C10" s="3">
+        <v>83</v>
+      </c>
+      <c r="D10" s="4">
+        <v>89.821139240506298</v>
+      </c>
+      <c r="E10" s="4">
+        <v>86.214059829999997</v>
+      </c>
+      <c r="F10" s="4">
+        <v>85.189455129999999</v>
+      </c>
+      <c r="G10" s="4">
+        <v>84.420102560000004</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4201025600000037</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
         <v>230</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="4">
+      <c r="C11" s="3">
+        <v>84</v>
+      </c>
+      <c r="D11" s="4">
+        <v>94.595189873417695</v>
+      </c>
+      <c r="E11" s="4">
+        <v>90.32400844</v>
+      </c>
+      <c r="F11" s="4">
+        <v>89.342147440000005</v>
+      </c>
+      <c r="G11" s="4">
+        <v>88.516384619999997</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="0"/>
+        <v>4.5163846199999966</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="3">
         <v>250</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="4">
+      <c r="C12" s="3">
+        <v>89</v>
+      </c>
+      <c r="D12" s="4">
+        <v>97.361898734177203</v>
+      </c>
+      <c r="E12" s="4">
+        <v>93.015238100000005</v>
+      </c>
+      <c r="F12" s="4">
+        <v>91.95334416</v>
+      </c>
+      <c r="G12" s="4">
+        <v>91.297350649999998</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="0"/>
+        <v>2.2973506499999985</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
         <v>270</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="4">
+      <c r="C13" s="3">
+        <v>92</v>
+      </c>
+      <c r="D13" s="4">
+        <v>98.994303797468305</v>
+      </c>
+      <c r="E13" s="4">
+        <v>95.061111109999999</v>
+      </c>
+      <c r="F13" s="4">
+        <v>93.876762819999996</v>
+      </c>
+      <c r="G13" s="4">
+        <v>93.147128210000005</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="0"/>
+        <v>1.1471282100000053</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
         <v>290</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C14" s="3">
+        <v>92</v>
+      </c>
+      <c r="D14" s="4">
+        <v>98.294683544303794</v>
+      </c>
+      <c r="E14" s="4">
+        <v>94.783504269999995</v>
+      </c>
+      <c r="F14" s="4">
+        <v>93.676057689999993</v>
+      </c>
+      <c r="G14" s="4">
+        <v>92.872205129999998</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.87220512999999755</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>310</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="C15" s="2">
+        <v>91</v>
+      </c>
+      <c r="D15" s="5">
+        <v>97.177468354430303</v>
+      </c>
+      <c r="E15" s="5">
+        <v>93.274372290000002</v>
+      </c>
+      <c r="F15" s="5">
+        <v>92.296363639999996</v>
+      </c>
+      <c r="G15" s="5">
+        <v>91.417818179999998</v>
+      </c>
+      <c r="H15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.4178181799999976</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1153,14 +1320,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1183,144 +1350,144 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>90</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>100</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>110</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>120</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>130</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>140</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>150</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>160</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>170</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>180</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>190</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>200</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>210</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>220</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
@@ -1328,9 +1495,9 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1355,14 +1522,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1385,144 +1552,144 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>90</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>100</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>110</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>120</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>130</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>140</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>150</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>160</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>170</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>180</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>190</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>200</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>210</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>220</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
@@ -1530,9 +1697,9 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1557,14 +1724,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1587,144 +1754,144 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>90</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>100</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>110</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>120</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>130</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>140</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>150</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>160</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>170</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>180</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>190</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>200</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>210</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>220</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
@@ -1732,9 +1899,9 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
